--- a/biology/Botanique/Muflier_à_larges_feuilles/Muflier_à_larges_feuilles.xlsx
+++ b/biology/Botanique/Muflier_à_larges_feuilles/Muflier_à_larges_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muflier_%C3%A0_larges_feuilles</t>
+          <t>Muflier_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhinum latifolium
-Le Muflier à larges feuilles, Antirrhinum latifolium, aussi appelé Gueule de loup à feuilles larges[1], est une espèce de plantes herbacées à souche sous-ligneuse, vivaces, de la famille des Scrofulariacées selon la classification classique ou des Plantaginacées selon la classification phylogénétique.
+Le Muflier à larges feuilles, Antirrhinum latifolium, aussi appelé Gueule de loup à feuilles larges, est une espèce de plantes herbacées à souche sous-ligneuse, vivaces, de la famille des Scrofulariacées selon la classification classique ou des Plantaginacées selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muflier_%C3%A0_larges_feuilles</t>
+          <t>Muflier_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Antirrhinum majus subsp. latifolium (Mill.) Bonnier &amp; Layens, 1894[1]
-Antirrhinum nicaeense Risso[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Antirrhinum majus subsp. latifolium (Mill.) Bonnier &amp; Layens, 1894
+Antirrhinum nicaeense Risso
 Antirrhinum nicaeense var. latifolium (Mill.) Risso</t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muflier_%C3%A0_larges_feuilles</t>
+          <t>Muflier_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Régions montagneuses : Sud-Est de la France et l'Est des Pyrénées[1], Espagne, Portugal, Italie, Suisse.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Régions montagneuses : Sud-Est de la France et l'Est des Pyrénées, Espagne, Portugal, Italie, Suisse.
 </t>
         </is>
       </c>
